--- a/data/trans_dic/P1432-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1432-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005549941161967364</v>
+        <v>0.006847152737769609</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003528423587748926</v>
+        <v>0.003602787633929816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.002806310205540546</v>
+        <v>0.002796639307714666</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01220446831299297</v>
+        <v>0.01237384495691226</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.008662461589070629</v>
+        <v>0.008620250435740122</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005561765499037862</v>
+        <v>0.005783557357108255</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007232495223357643</v>
+        <v>0.00729529403776133</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.007698179896719586</v>
+        <v>0.007893150354179618</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02478747068968797</v>
+        <v>0.02526577366875404</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.009905340495391169</v>
+        <v>0.009558861058166935</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01854898263403178</v>
+        <v>0.0184016304156722</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01769067168274831</v>
+        <v>0.01782432991997096</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0373817954575151</v>
+        <v>0.03670478735122242</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02935879295446079</v>
+        <v>0.03116308360377558</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01694540896996953</v>
+        <v>0.0168723228057928</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01943370732514803</v>
+        <v>0.020865698300098</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02080236471339715</v>
+        <v>0.01985789524699054</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005345064115351464</v>
+        <v>0.005342739864821901</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002086194288016976</v>
+        <v>0.002100638513241589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001845239012033514</v>
+        <v>0.00182172917350425</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01000439035984748</v>
+        <v>0.01002215891526351</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008573364566666344</v>
+        <v>0.00864167474156103</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005559934426943717</v>
+        <v>0.00553850919034586</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00904435889736064</v>
+        <v>0.009261633427968263</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006454213415453336</v>
+        <v>0.00623400828347659</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0047148653100886</v>
+        <v>0.004806762762011012</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01817642821559105</v>
+        <v>0.01809415936286489</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01531604353809738</v>
+        <v>0.01641906065204242</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01091173760981828</v>
+        <v>0.01149188772084357</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02952351891223491</v>
+        <v>0.02806120032827594</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02448698249279047</v>
+        <v>0.02483632399464651</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01883414085735535</v>
+        <v>0.01995093934051153</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02047704206984136</v>
+        <v>0.02056504137855701</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01665572438737516</v>
+        <v>0.01586634656148781</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01311804134527266</v>
+        <v>0.01316433155557228</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00514518548705541</v>
+        <v>0.0039658213942477</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002739895663538986</v>
+        <v>0.002786244935152012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001475151495219475</v>
+        <v>0.001485742604152439</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00861150958596857</v>
+        <v>0.008654946687580583</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007197816384492658</v>
+        <v>0.00746156458514157</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00849786509634653</v>
+        <v>0.008783313601663401</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007860245435571104</v>
+        <v>0.0078875574314352</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006663139193623085</v>
+        <v>0.006459890476683078</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006511297044285614</v>
+        <v>0.006333427556753754</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02241034286082389</v>
+        <v>0.02182568656056477</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01755701029813218</v>
+        <v>0.01573294741008089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01234729958137392</v>
+        <v>0.013012603738254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02680579222610916</v>
+        <v>0.02741433871813507</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02701450296365717</v>
+        <v>0.02630935105203015</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02830432584119882</v>
+        <v>0.02800205778878065</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02011273978602242</v>
+        <v>0.02095146810627642</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01953189645146608</v>
+        <v>0.01886458320161452</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01830453593788503</v>
+        <v>0.01762338593489834</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004524076579169576</v>
+        <v>0.005337907296229644</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004151391618215039</v>
+        <v>0.003205899638656936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0008317772084099427</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01022678212489525</v>
+        <v>0.01104301477183899</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007866933053735706</v>
+        <v>0.008468471176619528</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007816305261404507</v>
+        <v>0.007617297077857401</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009294545380104652</v>
+        <v>0.009613582157333251</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006976305216768084</v>
+        <v>0.007521582668031435</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.005036323637285473</v>
+        <v>0.005063554509473596</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01713814890442232</v>
+        <v>0.01695069699461591</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01724566636928363</v>
+        <v>0.01705859187239877</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008153522468727087</v>
+        <v>0.007396032300386944</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02701516283191028</v>
+        <v>0.02662842272669734</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02295335252221505</v>
+        <v>0.02269497451572072</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02557612121862124</v>
+        <v>0.0244048708553185</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01952112943152174</v>
+        <v>0.02029745704691118</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01722645104823857</v>
+        <v>0.01703597658295677</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01419896693245773</v>
+        <v>0.01468406233880159</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00790127440197994</v>
+        <v>0.007778858586261092</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004171528639609179</v>
+        <v>0.003963433618179132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003313949028394946</v>
+        <v>0.003090804098487121</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01135581951712544</v>
+        <v>0.01105620803452549</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01256436411250381</v>
+        <v>0.01255686203642089</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01050554548161705</v>
+        <v>0.01085280345606824</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01019667225461175</v>
+        <v>0.0102892885069448</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008862921858948937</v>
+        <v>0.009107068813574579</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.007751999497048452</v>
+        <v>0.007668092941202856</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01499601045264456</v>
+        <v>0.01487375644877311</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01045004622711928</v>
+        <v>0.01021529970257599</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008152979362129073</v>
+        <v>0.008108381856723079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01962394752414813</v>
+        <v>0.02004025318614542</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02110338031769656</v>
+        <v>0.02211740285126669</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01927348825151559</v>
+        <v>0.01958768386774908</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01569824790564721</v>
+        <v>0.01607736825623101</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01447867572649579</v>
+        <v>0.01448518908091208</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0127750601052864</v>
+        <v>0.01244811168646032</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3852</v>
+        <v>4752</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2381</v>
+        <v>2431</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8507</v>
+        <v>8625</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5828</v>
+        <v>5800</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7688</v>
+        <v>7995</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10129</v>
+        <v>10217</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10374</v>
+        <v>10637</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17203</v>
+        <v>17535</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6968</v>
+        <v>6724</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12517</v>
+        <v>12417</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12177</v>
+        <v>12269</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26057</v>
+        <v>25585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19754</v>
+        <v>20968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23425</v>
+        <v>23324</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27217</v>
+        <v>29223</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28034</v>
+        <v>26761</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5141</v>
+        <v>5139</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2124</v>
+        <v>2138</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1887</v>
+        <v>1863</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9688</v>
+        <v>9705</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8822</v>
+        <v>8892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5799</v>
+        <v>5776</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17457</v>
+        <v>17877</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>13211</v>
+        <v>12761</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9738</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17482</v>
+        <v>17403</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15591</v>
+        <v>16714</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11156</v>
+        <v>11750</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28590</v>
+        <v>27174</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25196</v>
+        <v>25556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19642</v>
+        <v>20807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>39525</v>
+        <v>39694</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34093</v>
+        <v>32477</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27093</v>
+        <v>27189</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3491</v>
+        <v>2691</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2076</v>
+        <v>2111</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5889</v>
+        <v>5919</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5586</v>
+        <v>5791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6671</v>
+        <v>6895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10708</v>
+        <v>10746</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10219</v>
+        <v>9907</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10057</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15206</v>
+        <v>14809</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13302</v>
+        <v>11920</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9378</v>
+        <v>9884</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18331</v>
+        <v>18747</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20965</v>
+        <v>20418</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22219</v>
+        <v>21982</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27401</v>
+        <v>28543</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29956</v>
+        <v>28932</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28273</v>
+        <v>27220</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4263</v>
+        <v>5029</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3934</v>
+        <v>3038</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10622</v>
+        <v>11469</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8275</v>
+        <v>8908</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8158</v>
+        <v>7951</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18411</v>
+        <v>19043</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>13950</v>
+        <v>15040</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9979</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16148</v>
+        <v>15971</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16344</v>
+        <v>16167</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7644</v>
+        <v>6934</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28058</v>
+        <v>27657</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24145</v>
+        <v>23873</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26696</v>
+        <v>25473</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38668</v>
+        <v>40206</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>34447</v>
+        <v>34066</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28133</v>
+        <v>29094</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25889</v>
+        <v>25488</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14295</v>
+        <v>13582</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11249</v>
+        <v>10491</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>38374</v>
+        <v>37361</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>44654</v>
+        <v>44627</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>37237</v>
+        <v>38468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>67866</v>
+        <v>68483</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>61870</v>
+        <v>63574</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>53790</v>
+        <v>53208</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49135</v>
+        <v>48735</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>35810</v>
+        <v>35006</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27674</v>
+        <v>27523</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>66313</v>
+        <v>67720</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>75001</v>
+        <v>78605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>68316</v>
+        <v>69429</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>104483</v>
+        <v>107007</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>101072</v>
+        <v>101118</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>88645</v>
+        <v>86376</v>
       </c>
     </row>
     <row r="24">
